--- a/src/analysis_examples/circainsilico/results_circainsilico/cosinor_simulation_71_.xlsx
+++ b/src/analysis_examples/circainsilico/results_circainsilico/cosinor_simulation_71_.xlsx
@@ -564,7 +564,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Gene</t>
+          <t>Simulation</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -589,7 +589,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[2.074418238447159, 2.7072577523346353]</t>
+          <t>[2.0663759669111075, 2.715300023870687]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -617,14 +617,14 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.1684656003844589, 0.5527108119011368]</t>
+          <t>[0.16876020371143508, 0.5524162085741606]</t>
         </is>
       </c>
       <c r="U2" t="n">
-        <v>0.0004588198857891079</v>
+        <v>0.0004507845533257004</v>
       </c>
       <c r="V2" t="n">
-        <v>0.0004588198857891079</v>
+        <v>0.0004507845533257004</v>
       </c>
       <c r="W2" t="n">
         <v>17.73785785785818</v>
